--- a/CupPlaner/CupPlaner/App_Data/Excel/regneark - Copy.xlsx
+++ b/CupPlaner/CupPlaner/App_Data/Excel/regneark - Copy.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/CupPlaner/CupPlaner/App_Data/Excel/regneark - Copy.xlsx
+++ b/CupPlaner/CupPlaner/App_Data/Excel/regneark - Copy.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark Haurum\Documents\UNI\3. Semester\P32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Søren\Desktop\P3\CupPlaner\CupPlaner\App_Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13632"/>
   </bookViews>
   <sheets>
     <sheet name="Cup" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>ELITE-Cup 2014</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>Viborg HK</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Team5</t>
+  </si>
+  <si>
+    <t>Team 6</t>
+  </si>
+  <si>
+    <t>Team 7</t>
   </si>
 </sst>
 </file>
@@ -515,21 +536,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +558,7 @@
         <v>41873</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,7 +578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -574,194 +595,228 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F15" t="s">
         <v>45</v>
       </c>
     </row>
